--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H2">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I2">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J2">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N2">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O2">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P2">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q2">
-        <v>115.359034798992</v>
+        <v>65.70837667719422</v>
       </c>
       <c r="R2">
-        <v>1038.231313190928</v>
+        <v>591.375390094748</v>
       </c>
       <c r="S2">
-        <v>0.08169071194657712</v>
+        <v>0.1346846808528805</v>
       </c>
       <c r="T2">
-        <v>0.08169071194657716</v>
+        <v>0.1346846808528805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H3">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I3">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J3">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.444981</v>
       </c>
       <c r="O3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q3">
-        <v>281.950436379102</v>
+        <v>101.7634841277553</v>
       </c>
       <c r="R3">
-        <v>2537.553927411918</v>
+        <v>915.871357149798</v>
       </c>
       <c r="S3">
-        <v>0.1996612742260756</v>
+        <v>0.2085880533856029</v>
       </c>
       <c r="T3">
-        <v>0.1996612742260757</v>
+        <v>0.2085880533856029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H4">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I4">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J4">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N4">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q4">
-        <v>114.46757206452</v>
+        <v>43.58036915847689</v>
       </c>
       <c r="R4">
-        <v>1030.20814858068</v>
+        <v>392.223322426292</v>
       </c>
       <c r="S4">
-        <v>0.08105942870482886</v>
+        <v>0.08932815583613973</v>
       </c>
       <c r="T4">
-        <v>0.08105942870482888</v>
+        <v>0.08932815583613972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H5">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I5">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J5">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N5">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O5">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P5">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q5">
-        <v>216.863599608252</v>
+        <v>52.15430994469423</v>
       </c>
       <c r="R5">
-        <v>1951.772396474268</v>
+        <v>469.388789502248</v>
       </c>
       <c r="S5">
-        <v>0.1535704756733137</v>
+        <v>0.1069024520954471</v>
       </c>
       <c r="T5">
-        <v>0.1535704756733138</v>
+        <v>0.1069024520954471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H6">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I6">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J6">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N6">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O6">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P6">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q6">
-        <v>18.351754953756</v>
+        <v>7.257384589469779</v>
       </c>
       <c r="R6">
-        <v>165.165794583804</v>
+        <v>65.316461305228</v>
       </c>
       <c r="S6">
-        <v>0.01299566982554669</v>
+        <v>0.01487570651853589</v>
       </c>
       <c r="T6">
-        <v>0.0129956698255467</v>
+        <v>0.01487570651853589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H7">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I7">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J7">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N7">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O7">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P7">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q7">
-        <v>109.187430196772</v>
+        <v>46.08442542363955</v>
       </c>
       <c r="R7">
-        <v>982.686871770948</v>
+        <v>414.759828812756</v>
       </c>
       <c r="S7">
-        <v>0.07732033233403438</v>
+        <v>0.09446080460888202</v>
       </c>
       <c r="T7">
-        <v>0.0773203323340344</v>
+        <v>0.09446080460888202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.925382</v>
       </c>
       <c r="I8">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J8">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N8">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O8">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P8">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q8">
-        <v>19.591365868048</v>
+        <v>30.91823137792134</v>
       </c>
       <c r="R8">
-        <v>176.322292812432</v>
+        <v>278.264082401292</v>
       </c>
       <c r="S8">
-        <v>0.01387349182103851</v>
+        <v>0.06337414400188868</v>
       </c>
       <c r="T8">
-        <v>0.01387349182103851</v>
+        <v>0.06337414400188866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.925382</v>
       </c>
       <c r="I9">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J9">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>39.444981</v>
       </c>
       <c r="O9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q9">
         <v>47.88349837863801</v>
@@ -1013,10 +1013,10 @@
         <v>430.951485407742</v>
       </c>
       <c r="S9">
-        <v>0.03390837206517516</v>
+        <v>0.09814842525982885</v>
       </c>
       <c r="T9">
-        <v>0.03390837206517517</v>
+        <v>0.09814842525982885</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.925382</v>
       </c>
       <c r="I10">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J10">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N10">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q10">
-        <v>19.43996920788</v>
+        <v>20.50618209298534</v>
       </c>
       <c r="R10">
-        <v>174.95972287092</v>
+        <v>184.555638836868</v>
       </c>
       <c r="S10">
-        <v>0.01376628131102507</v>
+        <v>0.04203221461813041</v>
       </c>
       <c r="T10">
-        <v>0.01376628131102507</v>
+        <v>0.04203221461813041</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.925382</v>
       </c>
       <c r="I11">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J11">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N11">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O11">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P11">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q11">
-        <v>36.829834184988</v>
+        <v>24.54053963542134</v>
       </c>
       <c r="R11">
-        <v>331.4685076648921</v>
+        <v>220.864856718792</v>
       </c>
       <c r="S11">
-        <v>0.02608079532468785</v>
+        <v>0.05030157364854446</v>
       </c>
       <c r="T11">
-        <v>0.02608079532468786</v>
+        <v>0.05030157364854446</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.925382</v>
       </c>
       <c r="I12">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J12">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N12">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O12">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P12">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q12">
-        <v>3.116669155964</v>
+        <v>3.414868960134667</v>
       </c>
       <c r="R12">
-        <v>28.050022403676</v>
+        <v>30.733820641212</v>
       </c>
       <c r="S12">
-        <v>0.002207047958543265</v>
+        <v>0.006999572342346058</v>
       </c>
       <c r="T12">
-        <v>0.002207047958543266</v>
+        <v>0.006999572342346057</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.925382</v>
       </c>
       <c r="I13">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J13">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N13">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O13">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P13">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q13">
-        <v>18.54324541553467</v>
+        <v>21.68443355656933</v>
       </c>
       <c r="R13">
-        <v>166.889208739812</v>
+        <v>195.159902009124</v>
       </c>
       <c r="S13">
-        <v>0.01313127248710619</v>
+        <v>0.04444731647214301</v>
       </c>
       <c r="T13">
-        <v>0.0131312724871062</v>
+        <v>0.04444731647214301</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H14">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I14">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J14">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N14">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O14">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P14">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q14">
-        <v>55.31751249243732</v>
+        <v>4.64395407705889</v>
       </c>
       <c r="R14">
-        <v>497.857612431936</v>
+        <v>41.79558669353</v>
       </c>
       <c r="S14">
-        <v>0.03917271834403702</v>
+        <v>0.009518869653969017</v>
       </c>
       <c r="T14">
-        <v>0.03917271834403704</v>
+        <v>0.009518869653969014</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H15">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I15">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J15">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.444981</v>
       </c>
       <c r="O15">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P15">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q15">
-        <v>135.2022129330907</v>
+        <v>7.192156782878334</v>
       </c>
       <c r="R15">
-        <v>1216.819916397816</v>
+        <v>64.729411045905</v>
       </c>
       <c r="S15">
-        <v>0.0957425229025356</v>
+        <v>0.01474200687843276</v>
       </c>
       <c r="T15">
-        <v>0.09574252290253561</v>
+        <v>0.01474200687843276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H16">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I16">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J16">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N16">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O16">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P16">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q16">
-        <v>54.89003404624</v>
+        <v>3.080052243985556</v>
       </c>
       <c r="R16">
-        <v>494.01030641616</v>
+        <v>27.72047019587</v>
       </c>
       <c r="S16">
-        <v>0.03887000240442705</v>
+        <v>0.006313287201255306</v>
       </c>
       <c r="T16">
-        <v>0.03887000240442706</v>
+        <v>0.006313287201255304</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H17">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I17">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J17">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N17">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O17">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P17">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q17">
-        <v>103.991463706224</v>
+        <v>3.686017408308889</v>
       </c>
       <c r="R17">
-        <v>935.923173356016</v>
+        <v>33.17415667478</v>
       </c>
       <c r="S17">
-        <v>0.07364084418121625</v>
+        <v>0.007555354482353998</v>
       </c>
       <c r="T17">
-        <v>0.07364084418121629</v>
+        <v>0.007555354482353997</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H18">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I18">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J18">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N18">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O18">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P18">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q18">
-        <v>8.800120733338666</v>
+        <v>0.5129172634811112</v>
       </c>
       <c r="R18">
-        <v>79.201086600048</v>
+        <v>4.61625537133</v>
       </c>
       <c r="S18">
-        <v>0.006231745343352609</v>
+        <v>0.001051343853391268</v>
       </c>
       <c r="T18">
-        <v>0.006231745343352611</v>
+        <v>0.001051343853391267</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H19">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I19">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J19">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N19">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O19">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P19">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q19">
-        <v>52.35807532935288</v>
+        <v>3.257026975212222</v>
       </c>
       <c r="R19">
-        <v>471.2226779641759</v>
+        <v>29.31324277691</v>
       </c>
       <c r="S19">
-        <v>0.03707701314647897</v>
+        <v>0.006676038290228116</v>
       </c>
       <c r="T19">
-        <v>0.03707701314647899</v>
+        <v>0.006676038290228115</v>
       </c>
     </row>
   </sheetData>
